--- a/biology/Mycologie/Polypore_bai/Polypore_bai.xlsx
+++ b/biology/Mycologie/Polypore_bai/Polypore_bai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyporus badius, Polyporus picipes, Picipes badius
-Le Polypore bai, Picipes badius, connu au XXe siècle sous le nom Polyporus badius puis Polyporus picipes  et au XXIe comme Royoporus badius, est une espèce de champignons basidiomycètes de la famille des Polyporacées. Ce Polypore produit un sporophore en forme de disque lisse et brillant, plus ou moins déprimé en son centre, mesurant de 2 à 20 cm de diamètre, de couleur brun rouge à brun crème, plus clair sur sa marge. Ses pores blanchâtres, particulièrement fines et serrées, sont décurrentes le long de son pied noir-brun sur sa base et excentré. Cette espèce cosmopolite pousse en troupe sur le bois mort, majoritairement de feuillus et surtout les Saules, les Aulnes et les Peupliers[2],[3]. 
+Le Polypore bai, Picipes badius, connu au XXe siècle sous le nom Polyporus badius puis Polyporus picipes  et au XXIe comme Royoporus badius, est une espèce de champignons basidiomycètes de la famille des Polyporacées. Ce Polypore produit un sporophore en forme de disque lisse et brillant, plus ou moins déprimé en son centre, mesurant de 2 à 20 cm de diamètre, de couleur brun rouge à brun crème, plus clair sur sa marge. Ses pores blanchâtres, particulièrement fines et serrées, sont décurrentes le long de son pied noir-brun sur sa base et excentré. Cette espèce cosmopolite pousse en troupe sur le bois mort, majoritairement de feuillus et surtout les Saules, les Aulnes et les Peupliers,. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Picipes badius a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Picipes badius a pour synonymes :
 Boletus badius Pers. (basionyme)
 Boletus badius var. nummularius Sw.
 Boletus batschii J.F.Gmel., 1792
